--- a/Dataset Politik.xlsx
+++ b/Dataset Politik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 8\Skripsi\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890FF65-EFFE-425B-B52A-0AAEECB6EC1A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B889F-1639-40AE-A80D-6EFF3E2CA37F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
